--- a/Retos/Reto1_Python/Libro1.xlsx
+++ b/Retos/Reto1_Python/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos\Programacion\OpenBootcamp\Retos\Reto1_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169100C7-F0E4-4480-94AF-6522BD5E3A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A33A39-64AA-4ECA-A629-9AA1C819C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D7880EEF-BF4C-4FAB-9BC3-5DB4B3ECBAC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Nombre</t>
   </si>
@@ -41,28 +41,22 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Sebastian Gomez</t>
-  </si>
-  <si>
-    <t>sebasg@gmail.com</t>
-  </si>
-  <si>
-    <t>Arturo Castro</t>
-  </si>
-  <si>
-    <t>arturoc@hotmail.com</t>
-  </si>
-  <si>
-    <t>Andre Salas</t>
-  </si>
-  <si>
-    <t>andres@yahoo.com</t>
-  </si>
-  <si>
-    <t>Carlos Martinez</t>
-  </si>
-  <si>
-    <t>carlosm@gmail.com</t>
+    <t>Nombre1</t>
+  </si>
+  <si>
+    <t>Nombre2</t>
+  </si>
+  <si>
+    <t>correo@dominio.es</t>
+  </si>
+  <si>
+    <t>correo2@facebook.com</t>
+  </si>
+  <si>
+    <t>correoAlt@correo.co</t>
+  </si>
+  <si>
+    <t>correoES@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -425,13 +419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB52C7C8-64DB-41A7-BEFB-31A968AA32E7}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -443,15 +440,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -459,18 +456,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -479,6 +500,9 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{2DF9478A-696D-42B9-A0FB-22D819E61E3F}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{922F3282-71B7-40F9-8D8D-D91756AFA21B}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{357A7B51-1597-4477-8A11-1948AF009E89}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{41D4A753-6D36-4A47-B9C5-7FAFA75B9A38}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{4A5F9A92-3D0E-431B-B3F5-7538B7EF10E0}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{FC320002-0395-45E2-B6A4-624750F02FC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
